--- a/download/rts27_2019/Q2/Table_1.xlsx
+++ b/download/rts27_2019/Q2/Table_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summercamilleri/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadijatartari/Dropbox (Deriv)/RMG_incorporation/Deriv Investments (Europe) Ltd/MFSA/Data Reporting/RTS27/2019/Q2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF7E63-9D77-B844-9EB7-B58F74C5DA04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556440B-0CBE-C24E-9B14-9647ABDCD974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="800" windowWidth="27240" windowHeight="15420" xr2:uid="{A315AEB8-1F5D-0D4D-A557-714F00D1DF21}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Venue</t>
   </si>
   <si>
-    <t>Binary Investments (Europe) Ltd</t>
-  </si>
-  <si>
     <t>Legal Entity Identifier: 529900GJO69GVJ6GK177</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">Market Segment </t>
-  </si>
-  <si>
-    <t>The Market Segment for Binary Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
   <si>
     <t>TYPE OF EXECUTION</t>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t>Deriv Investments (Europe) Ltd</t>
+  </si>
+  <si>
+    <t>The Market Segment for Deriv Investments (Europe) Ltd is Over the Counter for investors interested to trade in Contracts for Difference (CFDs).</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,12 +144,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -163,6 +154,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D3EE3F-6106-854C-BF8C-7B87AC02A538}">
   <dimension ref="A2:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,598 +499,598 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43556</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43557</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43558</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43559</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43560</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43562</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43563</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43564</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43565</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43566</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43567</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43569</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43570</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>43571</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8">
+        <v>43572</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
-        <v>43556</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <v>43573</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
+        <v>43574</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7">
+        <v>43575</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7">
+        <v>43576</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7">
+        <v>43577</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7">
+        <v>43578</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43579</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
-        <v>43557</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10">
-        <v>43558</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10">
-        <v>43559</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10">
-        <v>43560</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10">
-        <v>43562</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10">
-        <v>43563</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10">
-        <v>43564</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10">
-        <v>43565</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10">
-        <v>43566</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>43567</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>43569</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10">
-        <v>43570</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10">
-        <v>43571</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="11">
-        <v>43572</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="10">
-        <v>43573</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="10">
-        <v>43574</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="10">
-        <v>43575</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="10">
-        <v>43576</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="10">
-        <v>43577</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="10">
-        <v>43578</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="11">
-        <v>43579</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="10">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7">
         <v>43580</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1099,21 +1099,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="10">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7">
         <v>43581</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>15</v>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1122,21 +1122,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="10">
+        <v>14</v>
+      </c>
+      <c r="B31" s="7">
         <v>43582</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1145,21 +1145,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="10">
+        <v>14</v>
+      </c>
+      <c r="B32" s="7">
         <v>43584</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -1168,21 +1168,21 @@
         <v>30.303030303030305</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="10">
+        <v>14</v>
+      </c>
+      <c r="B33" s="7">
         <v>43585</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>15</v>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1191,21 +1191,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="10">
+        <v>14</v>
+      </c>
+      <c r="B34" s="7">
         <v>43586</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>15</v>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1214,21 +1214,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="10">
+        <v>14</v>
+      </c>
+      <c r="B35" s="7">
         <v>43587</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>15</v>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1237,21 +1237,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="10">
+        <v>14</v>
+      </c>
+      <c r="B36" s="7">
         <v>43588</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>15</v>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1260,21 +1260,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="10">
+        <v>14</v>
+      </c>
+      <c r="B37" s="7">
         <v>43589</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>15</v>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1283,21 +1283,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="10">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7">
         <v>43590</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>15</v>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1306,21 +1306,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="10">
+        <v>14</v>
+      </c>
+      <c r="B39" s="7">
         <v>43591</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>15</v>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1329,21 +1329,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="10">
+        <v>14</v>
+      </c>
+      <c r="B40" s="7">
         <v>43592</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>15</v>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1352,21 +1352,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="10">
+        <v>14</v>
+      </c>
+      <c r="B41" s="7">
         <v>43593</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>15</v>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1375,21 +1375,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="10">
+        <v>14</v>
+      </c>
+      <c r="B42" s="7">
         <v>43594</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>15</v>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1398,21 +1398,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="10">
+        <v>14</v>
+      </c>
+      <c r="B43" s="7">
         <v>43595</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>15</v>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1421,21 +1421,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="10">
+        <v>14</v>
+      </c>
+      <c r="B44" s="7">
         <v>43596</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1444,21 +1444,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="10">
+        <v>14</v>
+      </c>
+      <c r="B45" s="7">
         <v>43597</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>15</v>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1467,21 +1467,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="10">
+        <v>14</v>
+      </c>
+      <c r="B46" s="7">
         <v>43598</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>15</v>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1490,21 +1490,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="10">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7">
         <v>43599</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>15</v>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1513,21 +1513,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="10">
+        <v>14</v>
+      </c>
+      <c r="B48" s="7">
         <v>43600</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>15</v>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1536,21 +1536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="10">
+        <v>14</v>
+      </c>
+      <c r="B49" s="7">
         <v>43601</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>15</v>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1559,21 +1559,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="10">
+        <v>14</v>
+      </c>
+      <c r="B50" s="7">
         <v>43602</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>15</v>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1582,21 +1582,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="10">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7">
         <v>43603</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>15</v>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1605,21 +1605,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="10">
+        <v>14</v>
+      </c>
+      <c r="B52" s="7">
         <v>43604</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>15</v>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1628,21 +1628,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="10">
+        <v>14</v>
+      </c>
+      <c r="B53" s="7">
         <v>43605</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>15</v>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F53">
         <v>7</v>
@@ -1651,21 +1651,21 @@
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="10">
+        <v>14</v>
+      </c>
+      <c r="B54" s="7">
         <v>43606</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>15</v>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1674,21 +1674,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="10">
+        <v>14</v>
+      </c>
+      <c r="B55" s="7">
         <v>43607</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>15</v>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1697,21 +1697,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="10">
+        <v>14</v>
+      </c>
+      <c r="B56" s="7">
         <v>43608</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>15</v>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1720,21 +1720,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="10">
+        <v>14</v>
+      </c>
+      <c r="B57" s="7">
         <v>43609</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>15</v>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1743,21 +1743,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="10">
+        <v>14</v>
+      </c>
+      <c r="B58" s="7">
         <v>43610</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>15</v>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1766,21 +1766,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="10">
+        <v>14</v>
+      </c>
+      <c r="B59" s="7">
         <v>43611</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>15</v>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1789,21 +1789,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="10">
+        <v>14</v>
+      </c>
+      <c r="B60" s="7">
         <v>43612</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>15</v>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1812,21 +1812,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="10">
+        <v>14</v>
+      </c>
+      <c r="B61" s="7">
         <v>43613</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>15</v>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1835,21 +1835,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="10">
+        <v>14</v>
+      </c>
+      <c r="B62" s="7">
         <v>43614</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>15</v>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1858,21 +1858,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="10">
+        <v>14</v>
+      </c>
+      <c r="B63" s="7">
         <v>43615</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>15</v>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1881,21 +1881,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="10">
+        <v>14</v>
+      </c>
+      <c r="B64" s="7">
         <v>43616</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>15</v>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1904,21 +1904,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="10">
+        <v>14</v>
+      </c>
+      <c r="B65" s="7">
         <v>43619</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>15</v>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1927,21 +1927,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="10">
+        <v>14</v>
+      </c>
+      <c r="B66" s="7">
         <v>43620</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>15</v>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1950,21 +1950,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="10">
+        <v>14</v>
+      </c>
+      <c r="B67" s="7">
         <v>43621</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>15</v>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1973,21 +1973,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="10">
+        <v>14</v>
+      </c>
+      <c r="B68" s="7">
         <v>43622</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>15</v>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1996,21 +1996,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="10">
+        <v>14</v>
+      </c>
+      <c r="B69" s="7">
         <v>43623</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>15</v>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2019,21 +2019,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="10">
+        <v>14</v>
+      </c>
+      <c r="B70" s="7">
         <v>43625</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>15</v>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2042,21 +2042,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="10">
+        <v>14</v>
+      </c>
+      <c r="B71" s="7">
         <v>43626</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>15</v>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2065,21 +2065,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="10">
+        <v>14</v>
+      </c>
+      <c r="B72" s="7">
         <v>43627</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>15</v>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2088,21 +2088,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="10">
+        <v>14</v>
+      </c>
+      <c r="B73" s="7">
         <v>43628</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>15</v>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2111,21 +2111,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="10">
+        <v>14</v>
+      </c>
+      <c r="B74" s="7">
         <v>43629</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>15</v>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2134,21 +2134,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="10">
+        <v>14</v>
+      </c>
+      <c r="B75" s="7">
         <v>43630</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>15</v>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2157,21 +2157,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="10">
+        <v>14</v>
+      </c>
+      <c r="B76" s="7">
         <v>43632</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>15</v>
+      <c r="C76" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2180,21 +2180,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="10">
+        <v>14</v>
+      </c>
+      <c r="B77" s="7">
         <v>43633</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>15</v>
+      <c r="C77" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2203,21 +2203,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="10">
+        <v>14</v>
+      </c>
+      <c r="B78" s="7">
         <v>43634</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>15</v>
+      <c r="C78" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2226,21 +2226,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="10">
+        <v>14</v>
+      </c>
+      <c r="B79" s="7">
         <v>43635</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>15</v>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2249,21 +2249,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="10">
+        <v>14</v>
+      </c>
+      <c r="B80" s="7">
         <v>43636</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>15</v>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2272,21 +2272,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="10">
+        <v>14</v>
+      </c>
+      <c r="B81" s="7">
         <v>43637</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>15</v>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2295,21 +2295,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="10">
+        <v>14</v>
+      </c>
+      <c r="B82" s="7">
         <v>43638</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>15</v>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2320,19 +2320,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="10">
+        <v>14</v>
+      </c>
+      <c r="B83" s="7">
         <v>43640</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>15</v>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2343,19 +2343,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="10">
+        <v>14</v>
+      </c>
+      <c r="B84" s="7">
         <v>43641</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>15</v>
+      <c r="C84" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2366,19 +2366,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="10">
+        <v>14</v>
+      </c>
+      <c r="B85" s="7">
         <v>43642</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>15</v>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2389,19 +2389,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" s="10">
+        <v>14</v>
+      </c>
+      <c r="B86" s="7">
         <v>43643</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>15</v>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2412,19 +2412,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="10">
+        <v>14</v>
+      </c>
+      <c r="B87" s="7">
         <v>43644</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>15</v>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2435,19 +2435,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="10">
+        <v>14</v>
+      </c>
+      <c r="B88" s="7">
         <v>43646</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>15</v>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F88">
         <v>0</v>
